--- a/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-domain-security_structure.xlsx
+++ b/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-domain-security_structure.xlsx
@@ -130,10 +130,10 @@
     <t>com.github.fenixsoft.bookstore.security.provider.RSA256JWTAccessToken</t>
   </si>
   <si>
-    <t>encode(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
-  </si>
-  <si>
-    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>encode(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
+  </si>
+  <si>
+    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
